--- a/doors_detection_long_term/scripts/results/yolo_v5_results_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/yolo_v5_results_real_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.7903225806451613</t>
+          <t>0.27622461170848284</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.8384826393035032</t>
+          <t>0.17910313876530096</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1266,17 +1266,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>floor1</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1296,22 +1296,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.8548387096774194</t>
+          <t>0.07238691260430391</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>floor1</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1351,22 +1351,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.8118488299008809</t>
+          <t>0.2144483637321796</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>floor1</t>
+          <t>chemistry_floor0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1406,22 +1406,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.8548387096774194</t>
+          <t>0.039322916666666666</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>192</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>floor1</t>
+          <t>chemistry_floor0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1461,22 +1461,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.8738623518963325</t>
+          <t>0.06337731359241658</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.6370967741935484</t>
+          <t>0.7903225806451613</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.6636881507155784</t>
+          <t>0.8384826393035032</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.7903225806451613</t>
+          <t>0.8548387096774194</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.7303076114873708</t>
+          <t>0.8118488299008809</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.8145161290322581</t>
+          <t>0.8548387096774194</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.7888491414094555</t>
+          <t>0.8738623518963325</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1846,22 +1846,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.7303901475683235</t>
+          <t>0.6370967741935484</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1901,22 +1901,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.7089168123380745</t>
+          <t>0.6636881507155784</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1956,22 +1956,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.8040639198514618</t>
+          <t>0.7903225806451613</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2011,22 +2011,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.816449530593272</t>
+          <t>0.7303076114873708</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2066,22 +2066,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.7717391304347826</t>
+          <t>0.8145161290322581</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.8396283198012592</t>
+          <t>0.7888491414094555</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2176,22 +2176,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.46114921914739365</t>
+          <t>0.8225806451612904</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2231,22 +2231,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.5622966342189147</t>
+          <t>0.7890351638211304</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2286,22 +2286,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.6816989195270091</t>
+          <t>0.8387096774193549</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2341,22 +2341,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.6633736191794697</t>
+          <t>0.828106078973001</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.7130374749986083</t>
+          <t>0.8313988543864952</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.7235567901707507</t>
+          <t>0.8442336149385385</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.7546299430057087</t>
+          <t>0.7303901475683235</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.774506183597086</t>
+          <t>0.7089168123380745</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.811575627746493</t>
+          <t>0.8040639198514618</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2671,22 +2671,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.8258937291131916</t>
+          <t>0.816449530593272</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2726,22 +2726,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.8944666619997864</t>
+          <t>0.7717391304347826</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2781,22 +2781,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.8799643931415023</t>
+          <t>0.8396283198012592</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2836,22 +2836,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.6689233207448094</t>
+          <t>0.46114921914739365</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2891,22 +2891,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.6978675645342326</t>
+          <t>0.5622966342189147</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.8017843658846153</t>
+          <t>0.6816989195270091</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3001,22 +3001,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.7923207611281006</t>
+          <t>0.6633736191794697</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>chemistry_floor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3056,22 +3056,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.7940060253789812</t>
+          <t>0.7130374749986083</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3081,52 +3081,1372 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.7235567901707507</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.657466238291052</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.667360642177308</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.7361905175200075</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.8168096054888503</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.7499925870293123</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>floor4</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.818757612636091</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>chemistry_floor0</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.7546299430057087</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.774506183597086</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.811575627746493</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.8258937291131916</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>QD_75</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.8944666619997864</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.8799643931415023</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>deep_doors_2</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.6689233207448094</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.6978675645342326</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.8017843658846153</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.7923207611281006</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0.7940060253789812</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>0.8181099720867697</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.7292149642375271</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.7739900036561502</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.826126589250591</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.7953661153661165</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.862619829346343</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>chemistry_floor0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.8717949282537952</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
